--- a/biology/Zoologie/Gerrhosaurus_flavigularis/Gerrhosaurus_flavigularis.xlsx
+++ b/biology/Zoologie/Gerrhosaurus_flavigularis/Gerrhosaurus_flavigularis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gerrhosaurus flavigularis est une espèce de sauriens de la famille des Gerrhosauridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gerrhosaurus flavigularis est une espèce de sauriens de la famille des Gerrhosauridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Soudan, au Soudan du Sud, en Éthiopie, en Somalie, au Kenya, en Tanzanie, en Zambie, au Malawi, au Mozambique, au Zimbabwe, au Botswana, au Swaziland et en Afrique du Sud[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Soudan, au Soudan du Sud, en Éthiopie, en Somalie, au Kenya, en Tanzanie, en Zambie, au Malawi, au Mozambique, au Zimbabwe, au Botswana, au Swaziland et en Afrique du Sud.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est ovipare.
 </t>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Wiegmann, 1828 : Beiträge zur Amphibienkunde. Isis von Oken, vol. 21, n. 4, p. 364-383 (texte intégral).</t>
         </is>
